--- a/excels/单位表.xlsx
+++ b/excels/单位表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="13310"/>
+    <workbookView windowWidth="27945" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="custom_units" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">custom_units!$A$1:$BC$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">custom_units!$A$1:$BC$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="184">
   <si>
     <t>主键</t>
   </si>
@@ -151,6 +151,19 @@
     <t>是否有背包</t>
   </si>
   <si>
+    <t>寻敌范围 (让怪自动找人)</t>
+  </si>
+  <si>
+    <t>脱战距离 (太远不追)</t>
+  </si>
+  <si>
+    <t>攻击类型 (普通攻击)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">防御类型 (普通防御)
+</t>
+  </si>
+  <si>
     <t>UnitName</t>
   </si>
   <si>
@@ -283,6 +296,18 @@
     <t>HasInventory</t>
   </si>
   <si>
+    <t>AttackAcquisitionRange</t>
+  </si>
+  <si>
+    <t>ChaseDistance</t>
+  </si>
+  <si>
+    <t>CombatClassAttack</t>
+  </si>
+  <si>
+    <t>CombatClassDefend</t>
+  </si>
+  <si>
     <t>npc_kv_custom_earthshaker</t>
   </si>
   <si>
@@ -344,6 +369,12 @@
   </si>
   <si>
     <t>DOTA_HULL_SIZE_HUMAN</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_ATTACK_BASIC</t>
+  </si>
+  <si>
+    <t>DOTA_COMBAT_CLASS_DEFEND_BASIC</t>
   </si>
   <si>
     <t>键值</t>
@@ -568,13 +599,6 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +636,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -759,7 +789,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,12 +828,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -816,6 +840,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -930,19 +960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,90 +1264,132 @@
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1337,57 +1397,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1753,10 +1772,10 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="BF5" sqref="BF5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31.1416666666667" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.575" style="8" customWidth="1"/>
@@ -1795,9 +1814,13 @@
     <col min="55" max="55" width="12.0666666666667" customWidth="1"/>
     <col min="56" max="56" width="20.8583333333333" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
+    <col min="58" max="58" width="15.65" customWidth="1"/>
+    <col min="59" max="59" width="11.075" customWidth="1"/>
+    <col min="60" max="60" width="13.15" customWidth="1"/>
+    <col min="61" max="61" width="12.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="31.5" customHeight="1" spans="1:57">
+    <row r="1" s="6" customFormat="1" ht="31.5" customHeight="1" spans="1:63">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1843,37 +1866,37 @@
       <c r="W1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="17" t="s">
         <v>11</v>
       </c>
       <c r="Y1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24" t="s">
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="19" t="s">
         <v>14</v>
       </c>
       <c r="AH1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AI1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>17</v>
       </c>
       <c r="AK1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AL1" s="22" t="s">
         <v>19</v>
       </c>
       <c r="AM1" s="14" t="s">
@@ -1900,63 +1923,75 @@
       <c r="AT1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AU1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AV1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AW1" s="30" t="s">
+      <c r="AW1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="36" t="s">
+      <c r="AX1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="30" t="s">
+      <c r="AY1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="30" t="s">
+      <c r="AZ1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="BA1" s="30" t="s">
+      <c r="BA1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="BB1" s="37" t="s">
+      <c r="BB1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" s="37" t="s">
+      <c r="BC1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="37" t="s">
+      <c r="BD1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" s="37" t="s">
+      <c r="BE1" s="24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:57">
+      <c r="BF1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI1" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:63">
       <c r="A2" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J2" s="16">
         <v>1</v>
@@ -1989,307 +2024,319 @@
         <v>10</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="Z2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AA2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AB2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AC2" s="18" t="s">
         <v>58</v>
       </c>
+      <c r="AD2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="AH2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI2" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="AK2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" s="30" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="AL2" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="AM2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN2" s="31" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="AN2" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="AO2" s="14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AQ2" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AR2" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AS2" s="14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AT2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU2" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV2" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW2" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX2" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AY2" s="30" t="s">
+      <c r="AU2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AZ2" s="30" t="s">
+      <c r="AV2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="BA2" s="30" t="s">
+      <c r="AW2" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="BB2" s="37" t="s">
+      <c r="AX2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="BC2" s="37" t="s">
+      <c r="AY2" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="BD2" s="37" t="s">
+      <c r="AZ2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="BE2" s="37" t="s">
+      <c r="BA2" s="22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:57">
-      <c r="A3" s="17" t="s">
+      <c r="BB2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="BC2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="17" t="str">
+      <c r="BD2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI2" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" hidden="1" spans="1:63">
+      <c r="A3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="26" t="str">
         <f>SUBSTITUTE(B3,"npc_dota_hero_","")</f>
         <v>earthshaker</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18">
+      <c r="D3" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27">
         <v>1</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="3">
         <v>123</v>
       </c>
       <c r="K3" s="3">
         <v>223</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="18">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="27">
         <v>1</v>
       </c>
-      <c r="AG3" s="32">
+      <c r="AG3" s="31">
         <v>200</v>
       </c>
-      <c r="AH3" s="22" t="e">
+      <c r="AH3" s="28" t="e">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,#REF!,15,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="AI3" s="33" t="e">
+      <c r="AI3" s="32" t="e">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,#REF!,16,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ3" s="22" t="e">
+      <c r="AJ3" s="28" t="e">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$C3,#REF!,17,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$C3,#REF!,17,FALSE))</f>
         <v>#REF!</v>
       </c>
-      <c r="AK3" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="22" t="e">
+      <c r="AK3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL3" s="28" t="e">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,#REF!,19,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="AM3" s="18">
+      <c r="AM3" s="27">
         <v>5</v>
       </c>
-      <c r="AN3" s="18">
+      <c r="AN3" s="27">
         <v>0</v>
       </c>
-      <c r="AO3" s="18">
+      <c r="AO3" s="27">
         <v>500</v>
       </c>
-      <c r="AP3" s="18">
+      <c r="AP3" s="27">
         <v>0</v>
       </c>
-      <c r="AQ3" s="18">
+      <c r="AQ3" s="27">
         <v>100</v>
       </c>
-      <c r="AR3" s="18">
+      <c r="AR3" s="27">
         <v>0</v>
       </c>
-      <c r="AS3" s="18">
+      <c r="AS3" s="27">
         <v>0</v>
       </c>
-      <c r="AT3" s="18">
+      <c r="AT3" s="27">
         <v>0</v>
       </c>
-      <c r="AU3" s="18">
+      <c r="AU3" s="27">
         <v>50</v>
       </c>
-      <c r="AV3" s="18">
+      <c r="AV3" s="27">
         <v>60</v>
       </c>
-      <c r="AW3" s="22">
+      <c r="AW3" s="28">
         <v>1.5</v>
       </c>
-      <c r="AX3" s="22">
+      <c r="AX3" s="28">
         <v>0.3</v>
       </c>
-      <c r="AY3" s="22">
+      <c r="AY3" s="28">
         <v>130</v>
       </c>
-      <c r="AZ3" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA3" s="18">
+      <c r="AZ3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA3" s="27">
         <v>70</v>
       </c>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
       <c r="BE3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:63">
-      <c r="A4" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20">
+        <v>101</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34">
         <v>1</v>
       </c>
-      <c r="X4" s="23"/>
+      <c r="X4" s="35"/>
       <c r="Y4" s="3"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL4" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM4" s="20">
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL4" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM4" s="34">
         <v>20</v>
       </c>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20">
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34">
         <v>5000</v>
       </c>
-      <c r="AP4" s="20">
+      <c r="AP4" s="34">
         <v>10</v>
       </c>
-      <c r="AQ4" s="20">
+      <c r="AQ4" s="34">
         <v>0</v>
       </c>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA4" s="20"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA4" s="34"/>
       <c r="BE4" s="3">
         <v>0</v>
       </c>
@@ -2297,683 +2344,637 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:57">
-      <c r="A5" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+    <row r="5" s="3" customFormat="1" spans="1:63">
+      <c r="A5" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34">
+        <v>1</v>
+      </c>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="3"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH5" s="34">
+        <v>300</v>
+      </c>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL5" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34">
+        <v>200</v>
+      </c>
+      <c r="AP5" s="34">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="34">
+        <v>10</v>
+      </c>
+      <c r="AU5" s="34">
+        <v>30</v>
+      </c>
+      <c r="AV5" s="34">
+        <v>30</v>
+      </c>
+      <c r="AW5" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="AX5" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="AY5" s="34">
         <v>100</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="3"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH5" s="20">
-        <v>300</v>
-      </c>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM5" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20">
-        <v>200</v>
-      </c>
-      <c r="AP5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="20">
-        <v>5</v>
-      </c>
-      <c r="AT5" s="20">
-        <v>10</v>
-      </c>
-      <c r="AU5" s="20">
-        <v>30</v>
-      </c>
-      <c r="AV5" s="20">
-        <v>30</v>
-      </c>
-      <c r="AW5" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="AX5" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="AY5" s="20">
-        <v>100</v>
-      </c>
-      <c r="AZ5" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA5" s="20"/>
+      <c r="AZ5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA5" s="34"/>
       <c r="BE5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:53">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="X6" s="23"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20"/>
-      <c r="AU6" s="20"/>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="20"/>
-      <c r="AX6" s="20"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="20"/>
-      <c r="BA6" s="20"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:53">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="X7" s="23"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="20"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:53">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="X8" s="23"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="20"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:53">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="X9" s="23"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:53">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="X10" s="23"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="20"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:53">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="X11" s="23"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="20"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:53">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="X12" s="23"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:53">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="X13" s="23"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="20"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="20"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:53">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="X14" s="23"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="20"/>
-      <c r="AS14" s="20"/>
-      <c r="AT14" s="20"/>
-      <c r="AU14" s="20"/>
-      <c r="AV14" s="20"/>
-      <c r="AW14" s="20"/>
-      <c r="AX14" s="20"/>
-      <c r="AY14" s="20"/>
-      <c r="AZ14" s="20"/>
-      <c r="BA14" s="20"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:53">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="X15" s="23"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
-      <c r="AR15" s="20"/>
-      <c r="AS15" s="20"/>
-      <c r="AT15" s="20"/>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="20"/>
-      <c r="AW15" s="20"/>
-      <c r="AX15" s="20"/>
-      <c r="AY15" s="20"/>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="20"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:53">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="X16" s="23"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="20"/>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="20"/>
-      <c r="AR16" s="20"/>
-      <c r="AS16" s="20"/>
-      <c r="AT16" s="20"/>
-      <c r="AU16" s="20"/>
-      <c r="AV16" s="20"/>
-      <c r="AW16" s="20"/>
-      <c r="AX16" s="20"/>
-      <c r="AY16" s="20"/>
-      <c r="AZ16" s="20"/>
-      <c r="BA16" s="20"/>
+      <c r="BF5" s="3">
+        <v>800</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="BH5" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:63">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="X6" s="35"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:63">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="X7" s="35"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="34"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:63">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="X8" s="35"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="34"/>
+      <c r="AY8" s="34"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:63">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="X9" s="35"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:63">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="X10" s="35"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:63">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="X11" s="35"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:63">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="X12" s="35"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="34"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:63">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="X13" s="35"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+      <c r="AP13" s="34"/>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="34"/>
+      <c r="AW13" s="34"/>
+      <c r="AX13" s="34"/>
+      <c r="AY13" s="34"/>
+      <c r="AZ13" s="34"/>
+      <c r="BA13" s="34"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:63">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="X14" s="35"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="34"/>
+      <c r="AW14" s="34"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="34"/>
+      <c r="BA14" s="34"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:63">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="X15" s="35"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="34"/>
+      <c r="AW15" s="34"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="34"/>
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="34"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:63">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="X16" s="35"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="34"/>
+      <c r="AX16" s="34"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="34"/>
+      <c r="BA16" s="34"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:53">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="X17" s="23"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="20"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="20"/>
-      <c r="AW17" s="20"/>
-      <c r="AX17" s="20"/>
-      <c r="AY17" s="20"/>
-      <c r="AZ17" s="20"/>
-      <c r="BA17" s="20"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="X17" s="35"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="34"/>
+      <c r="AX17" s="34"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BC3">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BC5" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="0" priority="78" operator="between" text="_custom">
+    <cfRule type="containsText" dxfId="0" priority="79" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="containsText" dxfId="0" priority="67" operator="between" text="_custom">
+    <cfRule type="containsText" dxfId="0" priority="68" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",W3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="containsText" dxfId="0" priority="68" operator="between" text="_custom">
+    <cfRule type="containsText" dxfId="0" priority="69" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",X3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:AA3">
-    <cfRule type="containsText" dxfId="0" priority="65" operator="between" text="_custom">
+    <cfRule type="containsText" dxfId="0" priority="66" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",Y3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AA3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="11" operator="between" text="_custom">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AA3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3">
-    <cfRule type="containsText" dxfId="0" priority="19" operator="between" text="_custom">
+    <cfRule type="containsText" dxfId="0" priority="20" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AB3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AE3">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="between" text="_custom">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AD3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3">
-    <cfRule type="containsText" dxfId="0" priority="61" operator="between" text="_custom">
+    <cfRule type="containsText" dxfId="0" priority="62" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AG3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3">
-    <cfRule type="containsText" dxfId="0" priority="59" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AH3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="60" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AH3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3">
-    <cfRule type="containsText" dxfId="0" priority="57" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AI3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="58" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AI3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3">
-    <cfRule type="containsText" dxfId="0" priority="54" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AJ3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="55" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AJ3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="56" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AJ3)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3">
-    <cfRule type="containsText" dxfId="0" priority="52" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AK3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="53" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AK3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3">
-    <cfRule type="containsText" dxfId="0" priority="50" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AL3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="51" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AL3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW3">
-    <cfRule type="containsText" dxfId="0" priority="21" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AW3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="22" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AW3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="23" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AW3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="24" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AW3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="25" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AW3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="26" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="1" priority="27" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AW3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="2" priority="28" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AW3)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="77">
+    <cfRule type="containsBlanks" dxfId="3" priority="78">
       <formula>LEN(TRIM(AW3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX3">
-    <cfRule type="containsText" dxfId="0" priority="46" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AX3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="47" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AX3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="48" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="1" priority="49" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AX3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="49" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="2" priority="50" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AX3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3">
-    <cfRule type="containsText" dxfId="0" priority="42" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AY3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="43" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AY3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="44" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="1" priority="45" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AY3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="45" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="2" priority="46" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AY3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ3">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="_custom">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AZ3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AZ3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AZ3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$AL3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB3">
-    <cfRule type="containsText" dxfId="0" priority="35" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BB3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="36" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",BB3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="37" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BB3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="38" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BB3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="39" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BB3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="40" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="1" priority="41" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BB3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="41" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="2" priority="42" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BB3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC3">
-    <cfRule type="containsText" dxfId="0" priority="28" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BC3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="29" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",BC3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="30" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BC3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="31" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BC3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="32" operator="between" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BC3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="33" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="1" priority="34" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BC3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="34" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="2" priority="35" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BC3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL$1:AL$1048576">
-    <cfRule type="containsText" dxfId="1" priority="17" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+    <cfRule type="containsText" dxfId="1" priority="18" operator="between" text="DOTA_UNIT_CAP_MELEE_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AL1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="18" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+    <cfRule type="containsText" dxfId="2" priority="19" operator="between" text="DOTA_UNIT_CAP_RANGED_ATTACK">
       <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AL1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:BC2">
-    <cfRule type="expression" dxfId="4" priority="81">
+    <cfRule type="expression" dxfId="4" priority="82">
       <formula>$AL1="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BE2">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$AL1="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF1:BI2">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>$AL1="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3 A3:C3">
-    <cfRule type="containsText" dxfId="0" priority="66" operator="between" text="_custom">
+    <cfRule type="containsText" dxfId="0" priority="67" operator="between" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:AB3 AD3:AY3 A3:I3 BA3:XFD3 AY4:BC1048576">
-    <cfRule type="expression" dxfId="4" priority="20">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>$AL3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2992,7 +2993,7 @@
       <selection activeCell="D14" sqref="D14:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29.1416666666667" customWidth="1"/>
     <col min="2" max="2" width="12.425" customWidth="1"/>
@@ -3002,48 +3003,48 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -3052,7 +3053,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
@@ -3064,10 +3065,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -3076,7 +3077,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>24</v>
@@ -3088,10 +3089,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -3100,10 +3101,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -3112,10 +3113,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -3124,7 +3125,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -3136,24 +3137,24 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3">
         <v>100</v>
@@ -3162,10 +3163,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3">
         <v>90</v>
@@ -3174,10 +3175,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3">
         <v>110</v>
@@ -3186,10 +3187,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3">
         <v>1.7</v>
@@ -3198,10 +3199,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C17" s="3">
         <v>800</v>
@@ -3210,10 +3211,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C18" s="3">
         <v>900</v>
@@ -3222,22 +3223,22 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C20" s="3">
         <v>1000</v>
@@ -3246,10 +3247,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C21" s="3">
         <v>0.3</v>
@@ -3258,21 +3259,21 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
@@ -3284,7 +3285,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
@@ -3293,15 +3294,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C25" s="3">
         <v>1200</v>
@@ -3310,10 +3311,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C26" s="3">
         <v>1000</v>
@@ -3322,10 +3323,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3">
         <v>50</v>
@@ -3334,10 +3335,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C28" s="3">
         <v>40</v>
@@ -3346,10 +3347,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C29" s="3">
         <v>20</v>
@@ -3358,20 +3359,20 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -3380,171 +3381,171 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
@@ -3554,17 +3555,17 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>5</v>
@@ -3574,10 +3575,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -3597,7 +3598,7 @@
       <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
   </cols>
